--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/136.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/136.xlsx
@@ -479,13 +479,13 @@
         <v>-0.148582994293822</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.505845415207261</v>
+        <v>-2.482334802880654</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2062755158396238</v>
+        <v>-0.2210374259789571</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01593261487525887</v>
+        <v>0.02326569117180077</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1489779393915402</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.626634106030447</v>
+        <v>-2.591803975864072</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2554271934167196</v>
+        <v>-0.2768317496465159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0009346654340241226</v>
+        <v>0.009613836664148986</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1672790793737514</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.819420883140357</v>
+        <v>-2.777599232256419</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2309949909475459</v>
+        <v>-0.2631853844249549</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01769894515512124</v>
+        <v>0.02362981381581936</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2025524844611951</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.004665686121939</v>
+        <v>-2.960427224556387</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1934696213106216</v>
+        <v>-0.2331846061770714</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03761529493365233</v>
+        <v>0.04767715633796504</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2406438069501761</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.166233978352837</v>
+        <v>-3.13463978233695</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1667069119355936</v>
+        <v>-0.20951907399857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03012302934047918</v>
+        <v>0.04311738935859656</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2636982171452041</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.009300778304886</v>
+        <v>-3.003192422727254</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1061076331766135</v>
+        <v>-0.1516235735996141</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05474674690215178</v>
+        <v>0.06545512422381743</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2631631409298815</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.786330246744068</v>
+        <v>-2.785305580007131</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1461147700472256</v>
+        <v>-0.1963319790466003</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08668585306074059</v>
+        <v>0.09852441339642039</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2348986058313546</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.298193651363648</v>
+        <v>-2.301207879348137</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1853040032903186</v>
+        <v>-0.2414862365082892</v>
       </c>
       <c r="G9" t="n">
-        <v>0.100771971090237</v>
+        <v>0.122344255506139</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1729305774260739</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.849323139231591</v>
+        <v>-1.860354164591257</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2656140885597656</v>
+        <v>-0.3281443761813301</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1697747369334518</v>
+        <v>0.1869171674741327</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07010825203022016</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.327886094742081</v>
+        <v>-1.330098277036647</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3730741828339758</v>
+        <v>-0.4304976046291287</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2522128354440727</v>
+        <v>0.2708489617221097</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07857032707636924</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7615960936051956</v>
+        <v>-0.7526570961667761</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7219591785853696</v>
+        <v>-0.7926544743065602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3072313400108081</v>
+        <v>0.3247171558924982</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2700866712753172</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2210404755823408</v>
+        <v>-0.1868946764152775</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.026774965759009</v>
+        <v>-1.100017900146977</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3697939534282401</v>
+        <v>0.3851968901988356</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4958786375223777</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4569827240900518</v>
+        <v>0.5050066583358404</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.323218371802928</v>
+        <v>-1.398430130135438</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5640652774653548</v>
+        <v>0.5816126953353964</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7423691384696258</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9638999969488977</v>
+        <v>1.034305580348633</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.650637819256851</v>
+        <v>-1.710561305905994</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6399564874317621</v>
+        <v>0.658164449394722</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9944813890261742</v>
       </c>
       <c r="E16" t="n">
-        <v>1.522776412259911</v>
+        <v>1.613504552608891</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.925158846416415</v>
+        <v>-1.984712111214772</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7298734332806679</v>
+        <v>0.7549887469077994</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.236309569964528</v>
       </c>
       <c r="E17" t="n">
-        <v>2.043470573365142</v>
+        <v>2.163168726018302</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.284933975851145</v>
+        <v>-2.335684255521997</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7870315395814353</v>
+        <v>0.8145182247997633</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.451889862694163</v>
       </c>
       <c r="E18" t="n">
-        <v>2.394232295038889</v>
+        <v>2.533484504588592</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.602184215861647</v>
+        <v>-2.645480654941962</v>
       </c>
       <c r="G18" t="n">
-        <v>0.976034978733477</v>
+        <v>1.006298632793039</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.627660615254954</v>
       </c>
       <c r="E19" t="n">
-        <v>2.55669686570427</v>
+        <v>2.711636235059932</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.919068503466101</v>
+        <v>-2.958268715281375</v>
       </c>
       <c r="G19" t="n">
-        <v>1.082105063785378</v>
+        <v>1.114025262402988</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.753377034779781</v>
       </c>
       <c r="E20" t="n">
-        <v>2.87398126127267</v>
+        <v>3.041050733047498</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.243781732877292</v>
+        <v>-3.288863714738787</v>
       </c>
       <c r="G20" t="n">
-        <v>1.202152700986315</v>
+        <v>1.232789626500046</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.828882435389811</v>
       </c>
       <c r="E21" t="n">
-        <v>3.1703587958835</v>
+        <v>3.359956297774694</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.509468363994499</v>
+        <v>-3.549136080008501</v>
       </c>
       <c r="G21" t="n">
-        <v>1.396771069888499</v>
+        <v>1.427309798173274</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.863658608979345</v>
       </c>
       <c r="E22" t="n">
-        <v>3.351878508331843</v>
+        <v>3.547977764637172</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.722587151824144</v>
+        <v>-3.755126419928652</v>
       </c>
       <c r="G22" t="n">
-        <v>1.412730864236966</v>
+        <v>1.452712384439154</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.86723127708882</v>
       </c>
       <c r="E23" t="n">
-        <v>3.496866411925684</v>
+        <v>3.686041848708569</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.92694107456858</v>
+        <v>-3.95326464105635</v>
       </c>
       <c r="G23" t="n">
-        <v>1.559585735022333</v>
+        <v>1.589887204163853</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.848615375475802</v>
       </c>
       <c r="E24" t="n">
-        <v>3.561583875094067</v>
+        <v>3.746503285394604</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.082690113622626</v>
+        <v>-4.115236090854579</v>
       </c>
       <c r="G24" t="n">
-        <v>1.594476857256382</v>
+        <v>1.619207310936486</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.815467551257597</v>
       </c>
       <c r="E25" t="n">
-        <v>3.634399865008311</v>
+        <v>3.820398834906692</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.12702768729815</v>
+        <v>-4.152203992992956</v>
       </c>
       <c r="G25" t="n">
-        <v>1.613482595464528</v>
+        <v>1.639451798039107</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.772769852231238</v>
       </c>
       <c r="E26" t="n">
-        <v>3.507130157074001</v>
+        <v>3.70071044098436</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.154215206424532</v>
+        <v>-4.173366715674422</v>
       </c>
       <c r="G26" t="n">
-        <v>1.57762718864054</v>
+        <v>1.599090297255304</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.724771663078109</v>
       </c>
       <c r="E27" t="n">
-        <v>3.624537447665295</v>
+        <v>3.814688757530976</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.103315496187877</v>
+        <v>-4.134965499945687</v>
       </c>
       <c r="G27" t="n">
-        <v>1.530007021882759</v>
+        <v>1.554558158883898</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.672664511018797</v>
       </c>
       <c r="E28" t="n">
-        <v>3.506114029226538</v>
+        <v>3.690856562530818</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.983338304825105</v>
+        <v>-4.007688168002917</v>
       </c>
       <c r="G28" t="n">
-        <v>1.468636193467693</v>
+        <v>1.493650870183161</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.619475296933157</v>
       </c>
       <c r="E29" t="n">
-        <v>3.377761102170324</v>
+        <v>3.564571266568779</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.967950616071428</v>
+        <v>-3.999144399163031</v>
       </c>
       <c r="G29" t="n">
-        <v>1.437724193728747</v>
+        <v>1.468416012103386</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.56720953701089</v>
       </c>
       <c r="E30" t="n">
-        <v>3.249971741819424</v>
+        <v>3.440695157279895</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.742206775193437</v>
+        <v>-3.778226860600147</v>
       </c>
       <c r="G30" t="n">
-        <v>1.334545742605309</v>
+        <v>1.369031267589321</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.515166721695338</v>
       </c>
       <c r="E31" t="n">
-        <v>3.114098492818905</v>
+        <v>3.289889830271231</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.724341893611148</v>
+        <v>-3.769153375652504</v>
       </c>
       <c r="G31" t="n">
-        <v>1.191155221263871</v>
+        <v>1.228144470625933</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.46381371496432</v>
       </c>
       <c r="E32" t="n">
-        <v>2.915392435541156</v>
+        <v>3.085563963877925</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.621614478828164</v>
+        <v>-3.678291052754639</v>
       </c>
       <c r="G32" t="n">
-        <v>1.164973156373107</v>
+        <v>1.206380671117532</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.409710641525709</v>
       </c>
       <c r="E33" t="n">
-        <v>2.66418684609164</v>
+        <v>2.835098818129981</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.552236916729088</v>
+        <v>-3.612794720882049</v>
       </c>
       <c r="G33" t="n">
-        <v>1.010733975954351</v>
+        <v>1.050330636209512</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.35070942925125</v>
       </c>
       <c r="E34" t="n">
-        <v>2.428817237093211</v>
+        <v>2.589952180683281</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.333213181867507</v>
+        <v>-3.405484817577753</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8900648295838081</v>
+        <v>0.9349244953586276</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.284902353569891</v>
       </c>
       <c r="E35" t="n">
-        <v>2.219503439405459</v>
+        <v>2.369739100502041</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.273076222981502</v>
+        <v>-3.352736742730212</v>
       </c>
       <c r="G35" t="n">
-        <v>0.854052063225219</v>
+        <v>0.8954607978109981</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.210513663640317</v>
       </c>
       <c r="E36" t="n">
-        <v>2.018787693497825</v>
+        <v>2.167705316011954</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.064935912675813</v>
+        <v>-3.150699298716064</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7586568098577622</v>
+        <v>0.8034329164998674</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.128997118348849</v>
       </c>
       <c r="E37" t="n">
-        <v>1.738584645313676</v>
+        <v>1.875137345948092</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.01174747509966</v>
+        <v>-3.103358780588572</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7486187353598427</v>
+        <v>0.7847717834740838</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.039710726119617</v>
       </c>
       <c r="E38" t="n">
-        <v>1.522343978500096</v>
+        <v>1.647743669639497</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.920429846416603</v>
+        <v>-3.014016684977502</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7233613102150288</v>
+        <v>0.7679422422405746</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.944551131815071</v>
       </c>
       <c r="E39" t="n">
-        <v>1.334486580299664</v>
+        <v>1.446609518147613</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.783948506501366</v>
+        <v>-2.880580679001268</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5972248348981165</v>
+        <v>0.6402004557024614</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8459584435694343</v>
       </c>
       <c r="E40" t="n">
-        <v>1.080108183489705</v>
+        <v>1.189348636219343</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.73761039300611</v>
+        <v>-2.825287710129996</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5265338086216631</v>
+        <v>0.5622940678200784</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7463504282032546</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7914534644878588</v>
+        <v>0.8919696118572922</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.610533420005652</v>
+        <v>-2.697350139054647</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4993478142969719</v>
+        <v>0.5343999555896828</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.650092221300748</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5174100052181888</v>
+        <v>0.6168551318792527</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.562691852042211</v>
+        <v>-2.649520769504741</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4873226182342071</v>
+        <v>0.5246021898384019</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5601298910618778</v>
       </c>
       <c r="E43" t="n">
-        <v>0.353898810671509</v>
+        <v>0.4467580138650473</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.447233258013127</v>
+        <v>-2.538479221016666</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4188669512380354</v>
+        <v>0.4557622728158789</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4794825405936448</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1595786929802545</v>
+        <v>0.2521664814726399</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.368501647455103</v>
+        <v>-2.457183503933595</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188553627451772</v>
+        <v>0.4529621269889286</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.409881044903198</v>
       </c>
       <c r="E45" t="n">
-        <v>0.113643737052328</v>
+        <v>0.2034881023407007</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.316956031221772</v>
+        <v>-2.396354285079481</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3634282113250207</v>
+        <v>0.3927836934969047</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3509292155748313</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.05357455536762656</v>
+        <v>0.02797671847900277</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.295696636113041</v>
+        <v>-2.367801458518197</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2563566365218991</v>
+        <v>0.2802514988748577</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3015518922440024</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.1707817919769474</v>
+        <v>-0.09340725492468874</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.224345675664347</v>
+        <v>-2.298036291829047</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2493077832607218</v>
+        <v>0.275055584629641</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2582031222635784</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.2109237213171208</v>
+        <v>-0.1423851051089113</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.111677468731385</v>
+        <v>-2.187413758845898</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1800299431922936</v>
+        <v>0.2074635653117445</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2175960322642874</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.3128957493419519</v>
+        <v>-0.2463698713670109</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.011939580145482</v>
+        <v>-2.08284346873812</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1466782607463563</v>
+        <v>0.1715105711794767</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1769989589605132</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.3821693199656428</v>
+        <v>-0.3127450989347951</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.960651350437738</v>
+        <v>-2.033410617729044</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09930389202130441</v>
+        <v>0.1262568966474778</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1344210696139073</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.4431058848588645</v>
+        <v>-0.3736487281114724</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.851274885397185</v>
+        <v>-1.922689887516938</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09239288083307216</v>
+        <v>0.1161041570623297</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.09007843609993982</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5580924002841456</v>
+        <v>-0.4926125362698276</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.814412499535886</v>
+        <v>-1.884291111470911</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0257980818216587</v>
+        <v>0.04604439868631049</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04481742561690257</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.650142848660316</v>
+        <v>-0.5903913596420157</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.763338961906357</v>
+        <v>-1.830929151462223</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01075194864696086</v>
+        <v>0.03402042246489927</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.168446227370694e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.7573699532360083</v>
+        <v>-0.7012505418477428</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.731034513262396</v>
+        <v>-1.801565740321542</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06817483652762157</v>
+        <v>-0.04162498946877861</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04317721627075001</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.7478917859193436</v>
+        <v>-0.6847546272244148</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.719059940615802</v>
+        <v>-1.788578089430869</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08180107436684994</v>
+        <v>-0.05381669387629554</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08468592071412993</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7859575452758666</v>
+        <v>-0.7266744753373089</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.721445340382563</v>
+        <v>-1.790751236802122</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1430206424540827</v>
+        <v>-0.122924366075911</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.125682174169401</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.9440489846889631</v>
+        <v>-0.8796236735247426</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.696361742630623</v>
+        <v>-1.763617695655631</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1348562442751333</v>
+        <v>-0.1206548512377315</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1674778456556143</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9960178858719582</v>
+        <v>-0.9304965472516213</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.639959937969023</v>
+        <v>-1.709567745123572</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1770438475651197</v>
+        <v>-0.1545103281626627</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2114282119178191</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.028316845229828</v>
+        <v>-0.9627924570061077</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.684714087466765</v>
+        <v>-1.742085666004394</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1900802921099327</v>
+        <v>-0.1676413104123716</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2592317156625267</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.195819970605824</v>
+        <v>-1.123134503716405</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.708026475573429</v>
+        <v>-1.767770035622932</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2169442483173009</v>
+        <v>-0.2014571424933142</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3118224268386009</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.326344825191939</v>
+        <v>-1.244241573132853</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.653846611937223</v>
+        <v>-1.711305409131627</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2019688659411058</v>
+        <v>-0.1792481008908872</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3702125576952715</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.302209654092342</v>
+        <v>-1.218847525756447</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.600073565392407</v>
+        <v>-1.654036297267691</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2476732718532215</v>
+        <v>-0.2301923353369454</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4341788024014589</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.420116469717892</v>
+        <v>-1.330567306037066</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.626507527522668</v>
+        <v>-1.677947627478922</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2848894117070345</v>
+        <v>-0.2714260226884979</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5027100924711825</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.505607221215637</v>
+        <v>-1.408926255061596</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.641939740485747</v>
+        <v>-1.691830641923061</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2771049941096991</v>
+        <v>-0.2622150006282487</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5746386391391047</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.54307281862624</v>
+        <v>-1.446163742139095</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.693492065846523</v>
+        <v>-1.744894960641496</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2994720051674039</v>
+        <v>-0.2850382323521611</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6471463443576374</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.538427662752127</v>
+        <v>-1.442108989480074</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.728377698794482</v>
+        <v>-1.783698114096207</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3542178751916328</v>
+        <v>-0.3364258791302152</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7181693743003672</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.548487084473733</v>
+        <v>-1.453128426346881</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.7796220142135</v>
+        <v>-1.840143223125856</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3714011704176558</v>
+        <v>-0.3505437130349025</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7856615396871508</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.590543554818219</v>
+        <v>-1.49328987314871</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.806331050568974</v>
+        <v>-1.865617780031593</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3999497275342022</v>
+        <v>-0.3807567436782943</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8476543209642513</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.489258297475406</v>
+        <v>-1.401630383926336</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.930724982512418</v>
+        <v>-1.991562740256006</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3596742255658209</v>
+        <v>-0.3401183389072479</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.9037827364676487</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.536333805068851</v>
+        <v>-1.44569959250409</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.925376588098014</v>
+        <v>-1.994432417040106</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3663132121322235</v>
+        <v>-0.3477270993496799</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9529731203102115</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.577782794419295</v>
+        <v>-1.486933889776319</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.992040918066577</v>
+        <v>-2.057434173344797</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.368347907509855</v>
+        <v>-0.3473593171816008</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9953801830375116</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.510048663583717</v>
+        <v>-1.421217376539422</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.148802120483686</v>
+        <v>-2.209826513954359</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3952807847536958</v>
+        <v>-0.3751497428969494</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.030519477124238</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.540043952545509</v>
+        <v>-1.448102679970477</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.205658316049463</v>
+        <v>-2.256012147280429</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4206101805383659</v>
+        <v>-0.3989207913525282</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.057889022442193</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.476753703760717</v>
+        <v>-1.385168624860905</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.262176615560322</v>
+        <v>-2.312306605902921</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.430138361350524</v>
+        <v>-0.4112942521217161</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.077433723750747</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.383584050942714</v>
+        <v>-1.307324448887551</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.369057895112298</v>
+        <v>-2.416901902758446</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4332532262466764</v>
+        <v>-0.4159137913274059</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.08774390645788</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.269006182370854</v>
+        <v>-1.200442559414898</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.376437325380273</v>
+        <v>-2.420704148257293</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4029194313092885</v>
+        <v>-0.3862911638991062</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.088639273739933</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.144554917883797</v>
+        <v>-1.081442765936614</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.394383021452231</v>
+        <v>-2.4444587288546</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3454008618885628</v>
+        <v>-0.3321472855828276</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.079455336447835</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.9622392589522972</v>
+        <v>-0.9068932269821482</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.425890913692359</v>
+        <v>-2.465910248976506</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3577041817799247</v>
+        <v>-0.3469744572345728</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.060066754535178</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.771625019292964</v>
+        <v>-0.7286927028566682</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.410116535229624</v>
+        <v>-2.452248635738026</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3348034901300653</v>
+        <v>-0.3295569524686786</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.032159499033163</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6089951601241851</v>
+        <v>-0.57900780013119</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.526677255921591</v>
+        <v>-2.550206165868501</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2675213105159568</v>
+        <v>-0.2636452646152229</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.9956304512039323</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3059829083916893</v>
+        <v>-0.2798551264411561</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.55126986752875</v>
+        <v>-2.574846961209123</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.239661353843459</v>
+        <v>-0.2397333244833153</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.9510526339392309</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0603147127601848</v>
+        <v>0.07635318687595173</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.548813716963485</v>
+        <v>-2.557719778685361</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1552074674961857</v>
+        <v>-0.1604973095256216</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8987422225209634</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2014052232296061</v>
+        <v>0.2182701398623666</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.549803618221847</v>
+        <v>-2.553188068057123</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.07680338434157635</v>
+        <v>-0.08634803301200671</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.8380318496190282</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4783720323029294</v>
+        <v>0.491058382379289</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.488279699716918</v>
+        <v>-2.481943843726858</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.05574221345278916</v>
+        <v>-0.07026625452819067</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.7691854298145433</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6541633697552547</v>
+        <v>0.6678109548181692</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.450631736023967</v>
+        <v>-2.432811683611419</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.03601615892540347</v>
+        <v>-0.05448821654139516</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.6924883007750677</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9284977611877334</v>
+        <v>0.9436866158007903</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.47513895873638</v>
+        <v>-2.453430052088887</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.02067116461909908</v>
+        <v>-0.03491586202454997</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6101455378618915</v>
       </c>
       <c r="E87" t="n">
-        <v>1.096477844532946</v>
+        <v>1.107131938914381</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.383394690539938</v>
+        <v>-2.354147164327838</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03264017197341842</v>
+        <v>0.007569382555689497</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5248972460451251</v>
       </c>
       <c r="E88" t="n">
-        <v>1.287398264372007</v>
+        <v>1.292026952387848</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.257518651351997</v>
+        <v>-2.211610531933847</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05490776596081327</v>
+        <v>0.02919290030843839</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4395625474925831</v>
       </c>
       <c r="E89" t="n">
-        <v>1.360455782874243</v>
+        <v>1.367179548414714</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.05483774102388</v>
+        <v>-2.005420138031722</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1029207216344204</v>
+        <v>0.07592990192628858</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3585134526238848</v>
       </c>
       <c r="E90" t="n">
-        <v>1.401533940453225</v>
+        <v>1.405940617342729</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.872766660283756</v>
+        <v>-1.816288615537563</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0900556647997736</v>
+        <v>0.06722755371044729</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2845511849151618</v>
       </c>
       <c r="E91" t="n">
-        <v>1.456003516410887</v>
+        <v>1.451385197046551</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.525257645579106</v>
+        <v>-1.468413038506187</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09668489263534824</v>
+        <v>0.06730318387436404</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2193767604031687</v>
       </c>
       <c r="E92" t="n">
-        <v>1.515212176026881</v>
+        <v>1.50683430561107</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.278869819555223</v>
+        <v>-1.227069256479011</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08029693397180468</v>
+        <v>0.05223692331733352</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1647623262444378</v>
       </c>
       <c r="E93" t="n">
-        <v>1.573099137536363</v>
+        <v>1.564662714735584</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.011175634530501</v>
+        <v>-0.9622227910940251</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1164987757401856</v>
+        <v>0.08806915315560518</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1217828268300255</v>
       </c>
       <c r="E94" t="n">
-        <v>1.617870974733731</v>
+        <v>1.603339614610208</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7364954180743061</v>
+        <v>-0.6909770379685986</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1143195291621648</v>
+        <v>0.08648884868215095</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09069768239786802</v>
       </c>
       <c r="E95" t="n">
-        <v>1.622177624632249</v>
+        <v>1.602450350263509</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5113651573971234</v>
+        <v>-0.4645116609300143</v>
       </c>
       <c r="G95" t="n">
-        <v>0.06470492179141732</v>
+        <v>0.03398382722429439</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06811004087830209</v>
       </c>
       <c r="E96" t="n">
-        <v>1.567952626865962</v>
+        <v>1.533506746725939</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.316468664666342</v>
+        <v>-0.2784571882500495</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.004837623850719498</v>
+        <v>-0.02784932106374698</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04901221565847229</v>
       </c>
       <c r="E97" t="n">
-        <v>1.480522937536835</v>
+        <v>1.442884732574713</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.166437326996471</v>
+        <v>-0.1329892770836074</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.002493088769299963</v>
+        <v>-0.02572679710866373</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02805543585797544</v>
       </c>
       <c r="E98" t="n">
-        <v>1.429334734820078</v>
+        <v>1.394449711792796</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04212085497897478</v>
+        <v>-0.0125464112841382</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04270393914594593</v>
+        <v>-0.07189901217984522</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.002638181648546973</v>
       </c>
       <c r="E99" t="n">
-        <v>1.352760413695713</v>
+        <v>1.322257060810189</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07173364767026194</v>
+        <v>0.1002395103394359</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.07021929063608107</v>
+        <v>-0.09466125183608273</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.02794589049816468</v>
       </c>
       <c r="E100" t="n">
-        <v>1.176734866703516</v>
+        <v>1.156394012133968</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1216709030790092</v>
+        <v>0.1439262986528691</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03804597493762101</v>
+        <v>-0.06345953977568233</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0597079525418186</v>
       </c>
       <c r="E101" t="n">
-        <v>1.043312888902848</v>
+        <v>1.020459161145099</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1814656964653585</v>
+        <v>0.2019004788191255</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.131716982551911</v>
+        <v>-0.1532319344241987</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.08820864124694411</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8707718187369134</v>
+        <v>0.8574151658368078</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1733604605920536</v>
+        <v>0.1850026264698205</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1064955427270253</v>
+        <v>-0.1302891582476438</v>
       </c>
     </row>
   </sheetData>
